--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ART Regimen Line" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:40:09+00:00</t>
+    <t>2023-02-09T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,10 +96,19 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>708255002</t>
+  </si>
+  <si>
+    <t>First line treatment (procedure)</t>
+  </si>
+  <si>
+    <t>708256001</t>
+  </si>
+  <si>
+    <t>Second line treatment (procedure)</t>
   </si>
   <si>
     <t/>
@@ -108,7 +117,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/CodeSystem/cs-artregimen-lines</t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,26 +396,40 @@
       <c r="A1" t="s" s="1">
         <v>27</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:08:40+00:00</t>
+    <t>2023-02-09T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>VSART Regimen Lines</t>
+    <t>ART Regimen Lines</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:39:21+00:00</t>
+    <t>2023-02-09T15:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A list of ART Regimen Lines</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -353,26 +356,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -394,7 +399,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -402,34 +407,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:03:43+00:00</t>
+    <t>2023-02-09T15:04:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:04:10+00:00</t>
+    <t>2023-02-10T13:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Second line treatment (procedure)</t>
+  </si>
+  <si>
+    <t>708257005</t>
+  </si>
+  <si>
+    <t>Third line treatment (procedure)</t>
   </si>
   <si>
     <t/>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,15 +432,23 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/ValueSet-vs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:16+00:00</t>
+    <t>2023-02-10T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
